--- a/Project Data.xlsx
+++ b/Project Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15658447be4e3281/Documents/Projects/Moving-Abroad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{532C56C3-E418-440D-BE55-5191157326F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D654BF7C-C27B-4B91-BCC4-ABECD7F6C1C8}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{532C56C3-E418-440D-BE55-5191157326F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{031BA712-3AD0-4D76-8DEC-309B297E9308}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FE1C06CF-B9E0-402D-A181-9AD2281381F6}"/>
   </bookViews>
@@ -17,6 +17,10 @@
     <sheet name="Detailed " sheetId="6" r:id="rId2"/>
     <sheet name="Indexes" sheetId="5" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Indexes!$A$1:$E$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Monthly Cost of Living'!$A$1:$H$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="401">
   <si>
     <t>Restaurants</t>
   </si>
@@ -1763,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F29D10-6A92-42F4-A657-CA0FA5DCA678}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A5:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2068,107 +2072,46 @@
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>245</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>247</v>
-      </c>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B17" s="8">
-        <v>157.6</v>
-      </c>
-      <c r="C17" s="8">
-        <v>42.1</v>
-      </c>
-      <c r="D17" s="9">
-        <v>54.3</v>
-      </c>
-      <c r="E17" s="11">
-        <v>69</v>
-      </c>
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B18" s="6">
-        <v>153.9</v>
-      </c>
-      <c r="C18" s="6">
-        <v>38.9</v>
-      </c>
-      <c r="D18" s="9">
-        <v>58</v>
-      </c>
-      <c r="E18" s="9">
-        <v>71</v>
-      </c>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B19" s="6">
-        <v>144.6</v>
-      </c>
-      <c r="C19" s="8">
-        <v>36.6</v>
-      </c>
-      <c r="D19" s="2">
-        <v>58.4</v>
-      </c>
-      <c r="E19" s="2">
-        <v>66.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B20" s="6">
-        <v>174.8</v>
-      </c>
-      <c r="C20" s="6">
-        <v>42.6</v>
-      </c>
-      <c r="D20" s="9">
-        <v>75.5</v>
-      </c>
-      <c r="E20" s="9">
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="B21" s="12">
-        <v>188.8</v>
-      </c>
-      <c r="C21" s="2">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="D21" s="13">
-        <v>67.8</v>
-      </c>
-      <c r="E21" s="2">
-        <v>50.8</v>
-      </c>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3734,6 +3677,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
